--- a/src/predicciones/holt_winters/producto_201.xlsx
+++ b/src/predicciones/holt_winters/producto_201.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +404,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -403,8 +415,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44943</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -414,8 +426,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44949</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -425,8 +437,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44950</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -436,8 +448,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44969</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -447,8 +459,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44970</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -458,8 +470,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44979</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -469,8 +481,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44990</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -480,8 +492,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44995</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -491,8 +503,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>45000</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -502,8 +514,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>45003</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -513,8 +525,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45019</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -524,8 +536,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45020</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -535,8 +547,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45030</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -546,8 +558,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45060</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -557,8 +569,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45062</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -568,8 +580,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45093</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -579,8 +591,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45094</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -590,8 +602,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45107</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -601,8 +613,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45113</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -612,8 +624,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45122</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -623,8 +635,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45132</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -634,8 +646,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45136</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -645,8 +657,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45148</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -656,8 +668,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45150</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -667,8 +679,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45172</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -678,8 +690,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45177</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -689,8 +701,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45181</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -700,8 +712,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45182</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -711,8 +723,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45184</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -722,8 +734,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45195</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -733,8 +745,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45212</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -744,8 +756,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45220</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -755,8 +767,8 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45224</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -766,8 +778,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45232</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -777,8 +789,8 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45242</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -788,8 +800,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45252</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -799,8 +811,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45255</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -810,8 +822,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45258</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -821,8 +833,8 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45269</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -832,8 +844,8 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45270</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -843,8 +855,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45278</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -854,8 +866,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45287</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -865,475 +877,13 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45294</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
         <v>1</v>
       </c>
     </row>
